--- a/FantaSoccer/xG/SerieA/Genoa_matches_2020_fixed.xlsx
+++ b/FantaSoccer/xG/SerieA/Genoa_matches_2020_fixed.xlsx
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -830,8 +830,20 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>2.26</v>
+      </c>
+      <c r="E17">
+        <v>1.04966</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -841,8 +853,20 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1.0511</v>
+      </c>
+      <c r="E18">
+        <v>1.03548</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -852,8 +876,20 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>2.08328</v>
+      </c>
+      <c r="E19">
+        <v>0.9059709999999999</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -864,7 +900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -875,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -886,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -897,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -908,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -919,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -930,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -941,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -952,7 +988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -963,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -974,7 +1010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
